--- a/Документы/Экономическая часть.xlsx
+++ b/Документы/Экономическая часть.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Saaaveeesss\Диплом\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F25F3B7-6B3D-4411-98F6-AD3DC6183E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F3B207-9E30-46CD-8D4C-1C9807C267CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D7D4966-87C9-47EB-B682-58CA0E110CAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Объём работы" sheetId="1" r:id="rId1"/>
     <sheet name="Расчёт зарплаты" sheetId="2" r:id="rId2"/>
+    <sheet name="Накладные расходы" sheetId="3" r:id="rId3"/>
+    <sheet name="Смета затрат" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>Подбор материала и литературы</t>
   </si>
@@ -115,13 +117,85 @@
     <t>Коэффициет отчислений на социальные нужды</t>
   </si>
   <si>
-    <t>Довести до &lt;336</t>
+    <t>Амортизация</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Компьютер отдела информационного обеспечения (технические характеристики см. раздел 1)</t>
+  </si>
+  <si>
+    <t>Количество, шт.</t>
+  </si>
+  <si>
+    <t>Срок эксплуатации, лет</t>
+  </si>
+  <si>
+    <t>Электроэнергия</t>
+  </si>
+  <si>
+    <t>Стоимость,руб.</t>
+  </si>
+  <si>
+    <t>Часовая амортизация, руб.</t>
+  </si>
+  <si>
+    <t>Годовая амортизация, руб.</t>
+  </si>
+  <si>
+    <t>Цена ликвидации, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная потребляемая мощность, вт.</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Единица измерения</t>
+  </si>
+  <si>
+    <t>рубль</t>
+  </si>
+  <si>
+    <t>киловатт * часов</t>
+  </si>
+  <si>
+    <t>Общее потребление, кВт * час.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Накладные расходы</t>
+  </si>
+  <si>
+    <t>Наименование статьи затрат</t>
+  </si>
+  <si>
+    <t>Сумма, руб</t>
+  </si>
+  <si>
+    <t>Оплата труда</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Цена реализации(с НДС)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,13 +233,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44882BA0-1911-4257-ABAC-32D049866B09}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +581,7 @@
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -522,7 +601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -547,7 +626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -568,11 +647,11 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G14" si="1">E3+F3</f>
+        <f t="shared" ref="G3:G13" si="1">E3+F3</f>
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -622,7 +701,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -647,7 +726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -672,7 +751,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -697,7 +776,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -722,7 +801,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -747,7 +826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -772,7 +851,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -797,7 +876,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -822,9 +901,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <f>SUM(B2:B13)</f>
@@ -849,9 +928,6 @@
       <c r="G14">
         <f t="shared" si="2"/>
         <v>444</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -868,10 +944,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554499EB-F39D-4586-A5CE-E9DC855B706F}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,6 +1052,12 @@
         <v>89675.849999999977</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f>SUM(L2:L3)</f>
+        <v>180982.16999999998</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K2:K3"/>
@@ -983,4 +1065,270 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF03BE0-0189-4DC9-912F-0DA150EC82AF}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>67650</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f>C3*0.2</f>
+        <v>13530</v>
+      </c>
+      <c r="F3">
+        <f>(C3-E3)/D3</f>
+        <v>18040</v>
+      </c>
+      <c r="G3" s="4">
+        <f>F3/(8*247)</f>
+        <v>9.1295546558704448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>342</v>
+      </c>
+      <c r="D7" s="3">
+        <f>(B7*C7)/1000</f>
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4">
+        <f>G3</f>
+        <v>9.1295546558704448</v>
+      </c>
+      <c r="D11">
+        <f>'Объём работы'!G14</f>
+        <v>444</v>
+      </c>
+      <c r="E11" s="4">
+        <f>C11*D11</f>
+        <v>4053.5222672064774</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>7.94</v>
+      </c>
+      <c r="D12">
+        <f>'Объём работы'!G14*D7</f>
+        <v>303.69600000000003</v>
+      </c>
+      <c r="E12" s="4">
+        <f>C12*D12</f>
+        <v>2411.3462400000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="4">
+        <f>SUM(E11:E12)</f>
+        <v>6464.8685072064782</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BBE5A9-BEE5-4503-9ABE-92E7297A8DAD}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4">
+        <f>'Расчёт зарплаты'!L4</f>
+        <v>180982.16999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="4">
+        <f>'Накладные расходы'!E13</f>
+        <v>6464.8685072064782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="4">
+        <f>SUM(B2:B3)</f>
+        <v>187447.03850720645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="4">
+        <f>B4*1.2</f>
+        <v>224936.44620864774</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Документы/Экономическая часть.xlsx
+++ b/Документы/Экономическая часть.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Saaaveeesss\Диплом\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F3B207-9E30-46CD-8D4C-1C9807C267CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AD859C-D220-487D-9073-7CDBE65B1E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D7D4966-87C9-47EB-B682-58CA0E110CAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{6D7D4966-87C9-47EB-B682-58CA0E110CAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Объём работы" sheetId="1" r:id="rId1"/>
     <sheet name="Расчёт зарплаты" sheetId="2" r:id="rId2"/>
     <sheet name="Накладные расходы" sheetId="3" r:id="rId3"/>
-    <sheet name="Смета затрат" sheetId="4" r:id="rId4"/>
+    <sheet name="Обучение и внедрение" sheetId="5" r:id="rId4"/>
+    <sheet name="Смета затрат" sheetId="4" r:id="rId5"/>
+    <sheet name="Затраты" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>Подбор материала и литературы</t>
   </si>
@@ -186,7 +188,73 @@
     <t>Итого</t>
   </si>
   <si>
-    <t>Цена реализации(с НДС)</t>
+    <t>Обучение</t>
+  </si>
+  <si>
+    <t>Ставка, руб</t>
+  </si>
+  <si>
+    <t>Продолжительность обучения, ч.</t>
+  </si>
+  <si>
+    <t>Кладовщик</t>
+  </si>
+  <si>
+    <t>Инженер по инструменту отдела продготовки производства</t>
+  </si>
+  <si>
+    <t>Внедрение</t>
+  </si>
+  <si>
+    <t>Системный администратор</t>
+  </si>
+  <si>
+    <t>Длительность внедрения, ч.</t>
+  </si>
+  <si>
+    <t>Обучение персонала</t>
+  </si>
+  <si>
+    <t>Прямые затраты до внедрения</t>
+  </si>
+  <si>
+    <t>Прямые затраты после внедрения</t>
+  </si>
+  <si>
+    <t>Зарплата в год, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Косвенные затраты до внедрения</t>
+  </si>
+  <si>
+    <t>Сумма в год, руб</t>
+  </si>
+  <si>
+    <t>Излишние закупки</t>
+  </si>
+  <si>
+    <t>Простои производства по причине необеспеченности инструментом</t>
+  </si>
+  <si>
+    <t>Косвенные затраты после внедрения</t>
+  </si>
+  <si>
+    <t>Срок окупаемости,дней</t>
+  </si>
+  <si>
+    <t>Затраты до внедрения, руб.</t>
+  </si>
+  <si>
+    <t>Затраты после внедрения, руб.</t>
+  </si>
+  <si>
+    <t>Разность затрат, руб.</t>
+  </si>
+  <si>
+    <t>Стоимость продукта, руб.</t>
   </si>
 </sst>
 </file>
@@ -194,7 +262,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -233,18 +301,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44882BA0-1911-4257-ABAC-32D049866B09}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -946,7 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554499EB-F39D-4586-A5CE-E9DC855B706F}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -1027,7 +1100,7 @@
       <c r="J2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="4">
         <v>1.39</v>
       </c>
       <c r="L2">
@@ -1046,21 +1119,28 @@
       <c r="J3">
         <v>1.1499999999999999</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="4"/>
       <c r="L3">
         <f>I3*J3*$K$2</f>
         <v>89675.849999999977</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
       <c r="L4">
         <f>SUM(L2:L3)</f>
         <v>180982.16999999998</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="K2:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1071,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF03BE0-0189-4DC9-912F-0DA150EC82AF}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1221,7 @@
         <f>(C3-E3)/D3</f>
         <v>18040</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>F3/(8*247)</f>
         <v>9.1295546558704448</v>
       </c>
@@ -1184,7 +1264,7 @@
       <c r="C7">
         <v>342</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f>(B7*C7)/1000</f>
         <v>0.68400000000000005</v>
       </c>
@@ -1222,7 +1302,7 @@
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f>G3</f>
         <v>9.1295546558704448</v>
       </c>
@@ -1230,7 +1310,7 @@
         <f>'Объём работы'!G14</f>
         <v>444</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f>C11*D11</f>
         <v>4053.5222672064774</v>
       </c>
@@ -1249,42 +1329,194 @@
         <f>'Объём работы'!G14*D7</f>
         <v>303.69600000000003</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f>C12*D12</f>
         <v>2411.3462400000003</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="4">
+      <c r="A13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="3">
         <f>SUM(E11:E12)</f>
         <v>6464.8685072064782</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BBE5A9-BEE5-4503-9ABE-92E7297A8DAD}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6525E49D-BC4D-4A9D-B470-63C457E60AE4}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="G1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <f>37000/(8*22)</f>
+        <v>210.22727272727272</v>
+      </c>
+      <c r="E3">
+        <f>B3*C3*D3</f>
+        <v>33636.363636363632</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3">
+        <f>B3/2+B4+8</f>
+        <v>20</v>
+      </c>
+      <c r="I3" s="3">
+        <f>60000/(8*22)</f>
+        <v>340.90909090909093</v>
+      </c>
+      <c r="J3" s="3">
+        <f>H3*I3</f>
+        <v>6818.1818181818189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <f>60000/(8*22)</f>
+        <v>340.90909090909093</v>
+      </c>
+      <c r="E4" s="3">
+        <f>B4*C4*D4</f>
+        <v>2727.2727272727275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5">
+        <f>SUM(E3:E4)</f>
+        <v>36363.63636363636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BBE5A9-BEE5-4503-9ABE-92E7297A8DAD}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1296,7 +1528,7 @@
       <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <f>'Расчёт зарплаты'!L4</f>
         <v>180982.16999999998</v>
       </c>
@@ -1305,30 +1537,254 @@
       <c r="A3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <f>'Накладные расходы'!E13</f>
         <v>6464.8685072064782</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="4">
-        <f>SUM(B2:B3)</f>
-        <v>187447.03850720645</v>
+        <v>57</v>
+      </c>
+      <c r="B4" s="3">
+        <f>'Обучение и внедрение'!J3</f>
+        <v>6818.1818181818189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="3">
+        <f>'Обучение и внедрение'!E5</f>
+        <v>36363.63636363636</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="4">
-        <f>B4*1.2</f>
-        <v>224936.44620864774</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B6" s="3">
+        <f>SUM(B2:B5)</f>
+        <v>230628.85668902463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9543AA84-98D3-4C8F-9F89-DD4DD4CB9341}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="7"/>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1">
+        <f>D3+G5</f>
+        <v>3560000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2">
+        <f>D9+G11</f>
+        <v>1820000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <f>60000*12</f>
+        <v>720000</v>
+      </c>
+      <c r="D3">
+        <f>B3*C3</f>
+        <v>2160000</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3">
+        <v>1200000</v>
+      </c>
+      <c r="I3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3">
+        <f>J1-J2</f>
+        <v>1740000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4">
+        <v>200000</v>
+      </c>
+      <c r="I4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="3">
+        <f>'Смета затрат'!B6</f>
+        <v>230628.85668902463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5">
+        <f>SUM(G3:G4)</f>
+        <v>1400000</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="6">
+        <f>ROUNDUP(J4/J3*365,0)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <f>60000*12</f>
+        <v>720000</v>
+      </c>
+      <c r="D9">
+        <f>B9*C9</f>
+        <v>1440000</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9">
+        <f>G3*0.3</f>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10">
+        <f>200000*0.1</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11">
+        <f>SUM(G9:G10)</f>
+        <v>380000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Документы/Экономическая часть.xlsx
+++ b/Документы/Экономическая часть.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Saaaveeesss\Диплом\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AD859C-D220-487D-9073-7CDBE65B1E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7706253F-3341-4537-ACC6-0C18FEBB5B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{6D7D4966-87C9-47EB-B682-58CA0E110CAA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>Подбор материала и литературы</t>
   </si>
@@ -98,24 +98,9 @@
     <t>Тарифный коэффициент</t>
   </si>
   <si>
-    <t>Месячный оклад, руб</t>
-  </si>
-  <si>
-    <t>Минимальный размер оплаты труда, руб</t>
-  </si>
-  <si>
-    <t>Ставка, руб/час</t>
-  </si>
-  <si>
     <t>Районный коэффициент</t>
   </si>
   <si>
-    <t>Основная заработная плата, руб</t>
-  </si>
-  <si>
-    <t>Фонд оплаты труда, руб</t>
-  </si>
-  <si>
     <t>Коэффициет отчислений на социальные нужды</t>
   </si>
   <si>
@@ -155,18 +140,12 @@
     <t>Максимальная потребляемая мощность, вт.</t>
   </si>
   <si>
-    <t>Цена</t>
-  </si>
-  <si>
     <t>Единица измерения</t>
   </si>
   <si>
     <t>рубль</t>
   </si>
   <si>
-    <t>киловатт * часов</t>
-  </si>
-  <si>
     <t>Общее потребление, кВт * час.</t>
   </si>
   <si>
@@ -191,9 +170,6 @@
     <t>Обучение</t>
   </si>
   <si>
-    <t>Ставка, руб</t>
-  </si>
-  <si>
     <t>Продолжительность обучения, ч.</t>
   </si>
   <si>
@@ -227,34 +203,58 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Косвенные затраты до внедрения</t>
-  </si>
-  <si>
-    <t>Сумма в год, руб</t>
-  </si>
-  <si>
-    <t>Излишние закупки</t>
-  </si>
-  <si>
     <t>Простои производства по причине необеспеченности инструментом</t>
   </si>
   <si>
-    <t>Косвенные затраты после внедрения</t>
-  </si>
-  <si>
-    <t>Срок окупаемости,дней</t>
-  </si>
-  <si>
-    <t>Затраты до внедрения, руб.</t>
-  </si>
-  <si>
-    <t>Затраты после внедрения, руб.</t>
-  </si>
-  <si>
-    <t>Разность затрат, руб.</t>
-  </si>
-  <si>
     <t>Стоимость продукта, руб.</t>
+  </si>
+  <si>
+    <t>Зарплата в месяц, руб.</t>
+  </si>
+  <si>
+    <t>Прямые затраты до внедрения, руб.</t>
+  </si>
+  <si>
+    <t>Прямые затраты после внедрения, руб.</t>
+  </si>
+  <si>
+    <t>Разность прямых затрат, руб.</t>
+  </si>
+  <si>
+    <t>Срок окупаемости от прямых затрат,дней</t>
+  </si>
+  <si>
+    <t>Стоимость часа, руб.</t>
+  </si>
+  <si>
+    <t>Фонд оплаты труда в год, руб.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фактический срок окупаемости окажется меньше за счет уменьшения следующих косвенных затрат: </t>
+  </si>
+  <si>
+    <t>Фонд оплаты труда, руб.</t>
+  </si>
+  <si>
+    <t>Основная заработная плата, руб.</t>
+  </si>
+  <si>
+    <t>Ставка, руб./час</t>
+  </si>
+  <si>
+    <t>Месячный оклад, руб.</t>
+  </si>
+  <si>
+    <t>Минимальный размер оплаты труда, руб.</t>
+  </si>
+  <si>
+    <t>Цена, руб.</t>
+  </si>
+  <si>
+    <t>киловатт * час</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -308,22 +308,29 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -644,12 +651,13 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -976,7 +984,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <f>SUM(B2:B13)</f>
@@ -1006,7 +1014,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="notBetween">
       <formula>$B2</formula>
       <formula>$C2</formula>
     </cfRule>
@@ -1020,7 +1028,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1050,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
@@ -1051,22 +1059,22 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1100,7 +1108,7 @@
       <c r="J2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="6">
         <v>1.39</v>
       </c>
       <c r="L2">
@@ -1119,19 +1127,19 @@
       <c r="J3">
         <v>1.1499999999999999</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="6"/>
       <c r="L3">
         <f>I3*J3*$K$2</f>
         <v>89675.849999999977</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="H4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
       <c r="L4">
         <f>SUM(L2:L3)</f>
         <v>180982.16999999998</v>
@@ -1152,7 +1160,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E2" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,42 +1175,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1227,28 +1235,28 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="A5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1256,7 +1264,7 @@
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1270,37 +1278,37 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3">
         <f>G3</f>
@@ -1317,10 +1325,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>7.94</v>
@@ -1335,12 +1343,12 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="3">
         <f>SUM(E11:E12)</f>
         <v>6464.8685072064782</v>
@@ -1362,7 +1370,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,52 +1386,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="G1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -1432,32 +1440,32 @@
         <v>8</v>
       </c>
       <c r="D3" s="3">
-        <f>37000/(8*22)</f>
-        <v>210.22727272727272</v>
+        <f>37000/(8*22)*1.15*1.39</f>
+        <v>336.04829545454538</v>
       </c>
       <c r="E3">
         <f>B3*C3*D3</f>
-        <v>33636.363636363632</v>
+        <v>53767.727272727265</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <f>B3/2+B4+8</f>
         <v>20</v>
       </c>
       <c r="I3" s="3">
-        <f>60000/(8*22)</f>
-        <v>340.90909090909093</v>
+        <f>60000/(8*22)*1.15*1.39</f>
+        <v>544.94318181818176</v>
       </c>
       <c r="J3" s="3">
         <f>H3*I3</f>
-        <v>6818.1818181818189</v>
+        <v>10898.863636363636</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1466,31 +1474,31 @@
         <v>4</v>
       </c>
       <c r="D4" s="3">
-        <f>60000/(8*22)</f>
-        <v>340.90909090909093</v>
+        <f>60000/(8*22)*1.15*1.39</f>
+        <v>544.94318181818176</v>
       </c>
       <c r="E4" s="3">
         <f>B4*C4*D4</f>
-        <v>2727.2727272727275</v>
+        <v>4359.545454545454</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5">
         <f>SUM(E3:E4)</f>
-        <v>36363.63636363636</v>
+        <v>58127.272727272721</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="7"/>
+      <c r="E7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1507,7 +1515,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,15 +1526,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3">
         <f>'Расчёт зарплаты'!L4</f>
@@ -1535,7 +1543,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3">
         <f>'Накладные расходы'!E13</f>
@@ -1544,29 +1552,29 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B4" s="3">
         <f>'Обучение и внедрение'!J3</f>
-        <v>6818.1818181818189</v>
+        <v>10898.863636363636</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B5" s="3">
         <f>'Обучение и внедрение'!E5</f>
-        <v>36363.63636363636</v>
+        <v>58127.272727272721</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3">
         <f>SUM(B2:B5)</f>
-        <v>230628.85668902463</v>
+        <v>256473.17487084283</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1582,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9543AA84-98D3-4C8F-9F89-DD4DD4CB9341}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,197 +1601,285 @@
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="12" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="7"/>
-      <c r="I1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1">
-        <f>D3+G5</f>
-        <v>3560000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
+      </c>
+      <c r="H2">
+        <f>F5</f>
+        <v>20152383.529411763</v>
+      </c>
+      <c r="I2">
+        <f>F11</f>
+        <v>16496519.999999998</v>
       </c>
       <c r="J2">
-        <f>D9+G11</f>
-        <v>1820000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <f>H2-I2</f>
+        <v>3655863.5294117648</v>
+      </c>
+      <c r="K2" s="3">
+        <f>'Смета затрат'!B6</f>
+        <v>256473.17487084283</v>
+      </c>
+      <c r="L2" s="4">
+        <f>ROUNDUP((K2/J2)*365,0)</f>
+        <v>26</v>
+      </c>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3">
-        <f>60000*12</f>
+      <c r="C3" s="3">
+        <v>60000</v>
+      </c>
+      <c r="D3" s="3">
+        <f>C3*12</f>
         <v>720000</v>
       </c>
-      <c r="D3">
-        <f>B3*C3</f>
-        <v>2160000</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3">
-        <v>1200000</v>
-      </c>
-      <c r="I3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3">
-        <f>J1-J2</f>
-        <v>1740000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4">
-        <v>200000</v>
-      </c>
-      <c r="I4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" s="3">
-        <f>'Смета затрат'!B6</f>
-        <v>230628.85668902463</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5">
-        <f>SUM(G3:G4)</f>
-        <v>1400000</v>
-      </c>
-      <c r="I5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="6">
-        <f>ROUNDUP(J4/J3*365,0)</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="E3" s="3">
+        <f>D3*1.15*1.39</f>
+        <v>1150919.9999999998</v>
+      </c>
+      <c r="F3" s="3">
+        <f>B3*E3</f>
+        <v>3452759.9999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3">
+        <f>C10/0.85</f>
+        <v>43529.411764705881</v>
+      </c>
+      <c r="D4" s="3">
+        <f>C4*12</f>
+        <v>522352.9411764706</v>
+      </c>
+      <c r="E4" s="3">
+        <f>D4*1.15*1.39</f>
+        <v>834981.17647058819</v>
+      </c>
+      <c r="F4" s="3">
+        <f>B4*E4</f>
+        <v>16699623.529411763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="F5">
+        <f>SUM(F3:F4)</f>
+        <v>20152383.529411763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9">
-        <f>60000*12</f>
+        <v>60000</v>
+      </c>
+      <c r="D9">
+        <f>C9*12</f>
         <v>720000</v>
       </c>
-      <c r="D9">
-        <f>B9*C9</f>
-        <v>1440000</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9">
-        <f>G3*0.3</f>
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10">
-        <f>200000*0.1</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11">
-        <f>SUM(G9:G10)</f>
-        <v>380000</v>
-      </c>
+      <c r="E9">
+        <f>D9*1.15*1.39</f>
+        <v>1150919.9999999998</v>
+      </c>
+      <c r="F9">
+        <f>B9*E9</f>
+        <v>2301839.9999999995</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>37000</v>
+      </c>
+      <c r="D10">
+        <f>C10*12</f>
+        <v>444000</v>
+      </c>
+      <c r="E10">
+        <f>D10*1.15*1.39</f>
+        <v>709733.99999999988</v>
+      </c>
+      <c r="F10">
+        <f>B10*E10</f>
+        <v>14194679.999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="F11">
+        <f>SUM(F9:F10)</f>
+        <v>16496519.999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F7:G7"/>
+  <mergeCells count="6">
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Документы/Экономическая часть.xlsx
+++ b/Документы/Экономическая часть.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Saaaveeesss\Диплом\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7706253F-3341-4537-ACC6-0C18FEBB5B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37643532-E531-4D71-BC7D-6CAF70C18BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{6D7D4966-87C9-47EB-B682-58CA0E110CAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6D7D4966-87C9-47EB-B682-58CA0E110CAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Объём работы" sheetId="1" r:id="rId1"/>
@@ -323,14 +323,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -651,7 +644,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,7 +1007,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G14">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>$B2</formula>
       <formula>$C2</formula>
     </cfRule>
@@ -1027,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554499EB-F39D-4586-A5CE-E9DC855B706F}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,7 +1508,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9543AA84-98D3-4C8F-9F89-DD4DD4CB9341}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Документы/Экономическая часть.xlsx
+++ b/Документы/Экономическая часть.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Saaaveeesss\Диплом\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37643532-E531-4D71-BC7D-6CAF70C18BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B950418-FCD8-42A4-A1BD-31D5E4FCF942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6D7D4966-87C9-47EB-B682-58CA0E110CAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6D7D4966-87C9-47EB-B682-58CA0E110CAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Объём работы" sheetId="1" r:id="rId1"/>
@@ -1020,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554499EB-F39D-4586-A5CE-E9DC855B706F}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -1152,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF03BE0-0189-4DC9-912F-0DA150EC82AF}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E2" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Документы/Экономическая часть.xlsx
+++ b/Документы/Экономическая часть.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Saaaveeesss\Диплом\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B950418-FCD8-42A4-A1BD-31D5E4FCF942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A86E3A-93EB-4E29-90D9-DFB410C6A2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6D7D4966-87C9-47EB-B682-58CA0E110CAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{6D7D4966-87C9-47EB-B682-58CA0E110CAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Объём работы" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
   <si>
     <t>Подбор материала и литературы</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Районный коэффициент</t>
   </si>
   <si>
-    <t>Коэффициет отчислений на социальные нужды</t>
-  </si>
-  <si>
     <t>Амортизация</t>
   </si>
   <si>
@@ -170,15 +167,9 @@
     <t>Обучение</t>
   </si>
   <si>
-    <t>Продолжительность обучения, ч.</t>
-  </si>
-  <si>
     <t>Кладовщик</t>
   </si>
   <si>
-    <t>Инженер по инструменту отдела продготовки производства</t>
-  </si>
-  <si>
     <t>Внедрение</t>
   </si>
   <si>
@@ -255,6 +246,24 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>Коэффициент отчислений на социальные нужды</t>
+  </si>
+  <si>
+    <t>Основная ЗП, руб.</t>
+  </si>
+  <si>
+    <t>Ставка, руб.</t>
+  </si>
+  <si>
+    <t>Длительность обучения, ч.</t>
+  </si>
+  <si>
+    <t>ФОТ, руб.</t>
+  </si>
+  <si>
+    <t>Инженер по инструменту отдела подготовки производства</t>
   </si>
 </sst>
 </file>
@@ -309,7 +318,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -977,7 +988,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <f>SUM(B2:B13)</f>
@@ -1021,7 +1032,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1054,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
@@ -1052,22 +1063,22 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1128,7 +1139,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -1152,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF03BE0-0189-4DC9-912F-0DA150EC82AF}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1180,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1180,30 +1191,30 @@
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1229,7 +1240,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1240,16 +1251,16 @@
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1257,7 +1268,7 @@
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1272,7 +1283,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1281,27 +1292,27 @@
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3">
         <f>G3</f>
@@ -1318,10 +1329,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C12">
         <v>7.94</v>
@@ -1337,7 +1348,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1360,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6525E49D-BC4D-4A9D-B470-63C457E60AE4}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,59 +1383,68 @@
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
-      <c r="G1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="H1" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>65</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -1433,32 +1453,40 @@
         <v>8</v>
       </c>
       <c r="D3" s="3">
-        <f>37000/(8*22)*1.15*1.39</f>
-        <v>336.04829545454538</v>
-      </c>
-      <c r="E3">
-        <f>B3*C3*D3</f>
+        <f>37000/(8*22)</f>
+        <v>210.22727272727272</v>
+      </c>
+      <c r="E3" s="3">
+        <f>C3*D3</f>
+        <v>1681.8181818181818</v>
+      </c>
+      <c r="F3">
+        <f>B3*E3*1.15*1.39</f>
         <v>53767.727272727265</v>
       </c>
-      <c r="G3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3">
         <f>B3/2+B4+8</f>
         <v>20</v>
       </c>
-      <c r="I3" s="3">
-        <f>60000/(8*22)*1.15*1.39</f>
-        <v>544.94318181818176</v>
-      </c>
       <c r="J3" s="3">
-        <f>H3*I3</f>
+        <f>60000/(8*22)</f>
+        <v>340.90909090909093</v>
+      </c>
+      <c r="K3" s="3">
+        <f>I3*J3</f>
+        <v>6818.1818181818189</v>
+      </c>
+      <c r="L3" s="3">
+        <f>K3*1.15*1.39</f>
         <v>10898.863636363636</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1467,37 +1495,66 @@
         <v>4</v>
       </c>
       <c r="D4" s="3">
-        <f>60000/(8*22)*1.15*1.39</f>
-        <v>544.94318181818176</v>
+        <f>60000/(8*22)</f>
+        <v>340.90909090909093</v>
       </c>
       <c r="E4" s="3">
-        <f>B4*C4*D4</f>
+        <f>C4*D4</f>
+        <v>1363.6363636363637</v>
+      </c>
+      <c r="F4">
+        <f>B4*E4*1.15*1.39</f>
         <v>4359.545454545454</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5">
-        <f>SUM(E3:E4)</f>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3">
+        <f>SUM(F3:F4)</f>
         <v>58127.272727272721</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="5"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:J1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:D5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1519,15 +1576,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3">
         <f>'Расчёт зарплаты'!L4</f>
@@ -1536,7 +1593,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3">
         <f>'Накладные расходы'!E13</f>
@@ -1545,25 +1602,25 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3">
-        <f>'Обучение и внедрение'!J3</f>
+        <f>'Обучение и внедрение'!L3</f>
         <v>10898.863636363636</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3">
-        <f>'Обучение и внедрение'!E5</f>
+        <f>'Обучение и внедрение'!F5</f>
         <v>58127.272727272721</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3">
         <f>SUM(B2:B5)</f>
@@ -1585,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9543AA84-98D3-4C8F-9F89-DD4DD4CB9341}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,7 +1670,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1621,40 +1678,40 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H2">
         <f>F5</f>
@@ -1680,7 +1737,7 @@
     </row>
     <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1700,10 +1757,11 @@
         <f>B3*E3</f>
         <v>3452759.9999999991</v>
       </c>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -1727,7 +1785,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1739,7 +1797,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1753,22 +1811,22 @@
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1777,7 +1835,7 @@
     </row>
     <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1802,7 +1860,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -1825,7 +1883,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1837,17 +1895,17 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
